--- a/biology/Botanique/Parc_Gülhane/Parc_Gülhane.xlsx
+++ b/biology/Botanique/Parc_Gülhane/Parc_Gülhane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_G%C3%BClhane</t>
+          <t>Parc_Gülhane</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Gülhane (en turc : Gülhane parkı, « parc de la roseraie » en français) est un parc urbain historique du district d'Eminönü d'Istanbul, en Turquie. Il est situé sur les terres et en lisière du palais de Topkapı. L'entrée sud du parc possède l'une des plus grandes portes du palais. C'est le plus ancien et, avec ses 65 hectares, l'un des plus vastes parcs publics à Istanbul.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_G%C3%BClhane</t>
+          <t>Parc_Gülhane</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Gülhane fit jadis partie des parcs extérieurs du palais de Topkapı. C'était avant tout un parc arboré.
-C'est dans ce parc, alors vaste plaine, qu'a été lu publiquement, le 3 novembre 1839, au nom du sultan Abdülmecid, le Hatti-schérif, une nouvelle charte assurant à tous les citoyens de Turquie, sans acception de religion, des garanties sur leur vie, leur honneur, leur fortune et leur liberté personnelle mais aussi un mode régulier d'établir et de lever des impôts, charte qui na été qu'en partie suivie[1].
+C'est dans ce parc, alors vaste plaine, qu'a été lu publiquement, le 3 novembre 1839, au nom du sultan Abdülmecid, le Hatti-schérif, une nouvelle charte assurant à tous les citoyens de Turquie, sans acception de religion, des garanties sur leur vie, leur honneur, leur fortune et leur liberté personnelle mais aussi un mode régulier d'établir et de lever des impôts, charte qui na été qu'en partie suivie.
 Une section du jardin extérieur a été transformée en parc par la municipalité et ouverte au public en 1912.
 Le parc abrita autrefois une fête foraine, des cafés, des aires de jeux, etc. Plus tard, un petit zoo y a ouvert.
 La première statue de Mustafa Kemal Atatürk en Turquie, œuvre de Heinrich Krippel, a été érigée dans le parc en 1926.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_G%C3%BClhane</t>
+          <t>Parc_Gülhane</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Futur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vieilles casernes dans le parc de Gülhane devraient être converties en un centre culturel, qui abritera une bibliothèque et une salle d'expositions ainsi qu'un atelier sur le tapis (kilim) et l'artisanat.
 </t>
